--- a/server/static/excel_table.xlsx
+++ b/server/static/excel_table.xlsx
@@ -10,13 +10,14 @@
     <sheet sheetId="4" name="Rooms" state="visible" r:id="rId7"/>
     <sheet sheetId="5" name="Visitors" state="visible" r:id="rId8"/>
     <sheet sheetId="6" name="Workers" state="visible" r:id="rId9"/>
+    <sheet sheetId="7" name="StudentVisitor" state="visible" r:id="rId10"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
   <si>
     <t>ID</t>
   </si>
@@ -36,34 +37,25 @@
     <t>Contact Info</t>
   </si>
   <si>
+    <t>RoomId</t>
+  </si>
+  <si>
+    <t>Абдурозік</t>
+  </si>
+  <si>
+    <t>Іванкович</t>
+  </si>
+  <si>
+    <t>USER</t>
+  </si>
+  <si>
+    <t>tg: sosichka</t>
+  </si>
+  <si>
     <t>Коваль</t>
   </si>
   <si>
-    <t>Іван</t>
-  </si>
-  <si>
-    <t>USER</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Іванченко</t>
-  </si>
-  <si>
-    <t>Сергій</t>
-  </si>
-  <si>
-    <t>Філолог</t>
-  </si>
-  <si>
-    <t>Невідомо</t>
-  </si>
-  <si>
-    <t>Якийсь</t>
-  </si>
-  <si>
-    <t>telegram: @morkwa12</t>
+    <t>Станіслав</t>
   </si>
   <si>
     <t>Dorm Number</t>
@@ -72,28 +64,10 @@
     <t>Address</t>
   </si>
   <si>
-    <t>Філологічний гуртожиток</t>
-  </si>
-  <si>
-    <t>Видумана 1</t>
-  </si>
-  <si>
-    <t>Гуртожиток Юристів</t>
-  </si>
-  <si>
-    <t>Київська 12</t>
-  </si>
-  <si>
-    <t>Кібернетичний гуртожиток</t>
-  </si>
-  <si>
-    <t>Нова 13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Гуртожиток політологів </t>
-  </si>
-  <si>
-    <t>Боснівська, 2</t>
+    <t>Гуртожиток номер 1</t>
+  </si>
+  <si>
+    <t>Київська, 12</t>
   </si>
   <si>
     <t>Balance</t>
@@ -102,6 +76,9 @@
     <t>Last Update Date</t>
   </si>
   <si>
+    <t>StudentId</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
@@ -117,12 +94,12 @@
     <t>Room Name</t>
   </si>
   <si>
+    <t>DormitoryId</t>
+  </si>
+  <si>
     <t>101/6</t>
   </si>
   <si>
-    <t>102/3</t>
-  </si>
-  <si>
     <t>Passport</t>
   </si>
   <si>
@@ -130,6 +107,51 @@
   </si>
   <si>
     <t>Position</t>
+  </si>
+  <si>
+    <t>dormitoryId</t>
+  </si>
+  <si>
+    <t>Світлана</t>
+  </si>
+  <si>
+    <t>Костюченко</t>
+  </si>
+  <si>
+    <t>13250</t>
+  </si>
+  <si>
+    <t>Вахтер</t>
+  </si>
+  <si>
+    <t>Григорій</t>
+  </si>
+  <si>
+    <t>Григорян</t>
+  </si>
+  <si>
+    <t>12420</t>
+  </si>
+  <si>
+    <t>Сантехнік</t>
+  </si>
+  <si>
+    <t>Олександр</t>
+  </si>
+  <si>
+    <t>Бажан</t>
+  </si>
+  <si>
+    <t>2500</t>
+  </si>
+  <si>
+    <t>Комуніст</t>
+  </si>
+  <si>
+    <t>studentId</t>
+  </si>
+  <si>
+    <t>visitorId</t>
   </si>
 </sst>
 </file>
@@ -507,17 +529,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G3"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="6" max="7" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -536,65 +558,54 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="F3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
+      <c r="G3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -605,7 +616,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
@@ -622,10 +633,10 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -633,55 +644,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4">
         <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -692,56 +661,54 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D3"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="3" max="4" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1">
-        <v>45349.73126936343</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45353.56531767361</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1">
-        <v>45349.740995960645</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="1">
-        <v>45352.51763516203</v>
+        <v>45353.58790462963</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -752,34 +719,37 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="5" max="6" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -790,27 +760,13 @@
         <v>6</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>102</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>34</v>
+        <v>26</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -840,7 +796,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -851,16 +807,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="5" max="6" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -871,10 +827,99 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
         <v>36</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D3" t="s">
         <v>37</v>
+      </c>
+      <c r="E3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C1"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="3" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/server/static/excel_table.xlsx
+++ b/server/static/excel_table.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="57">
   <si>
     <t>ID</t>
   </si>
@@ -40,22 +40,31 @@
     <t>RoomId</t>
   </si>
   <si>
+    <t>Коваль</t>
+  </si>
+  <si>
+    <t>Станіслав</t>
+  </si>
+  <si>
+    <t>USER</t>
+  </si>
+  <si>
+    <t>tg: sosichka</t>
+  </si>
+  <si>
     <t>Абдурозік</t>
   </si>
   <si>
     <t>Іванкович</t>
   </si>
   <si>
-    <t>USER</t>
-  </si>
-  <si>
-    <t>tg: sosichka</t>
-  </si>
-  <si>
-    <t>Коваль</t>
-  </si>
-  <si>
-    <t>Станіслав</t>
+    <t>Ярослав</t>
+  </si>
+  <si>
+    <t>Волошин</t>
+  </si>
+  <si>
+    <t>tg: sosichka_nigera</t>
   </si>
   <si>
     <t>Dorm Number</t>
@@ -70,6 +79,12 @@
     <t>Київська, 12</t>
   </si>
   <si>
+    <t>Гуртожиток номер 16</t>
+  </si>
+  <si>
+    <t>Сєченова 6</t>
+  </si>
+  <si>
     <t>Balance</t>
   </si>
   <si>
@@ -100,7 +115,28 @@
     <t>101/6</t>
   </si>
   <si>
+    <t>101/3</t>
+  </si>
+  <si>
     <t>Passport</t>
+  </si>
+  <si>
+    <t>Кіщук</t>
+  </si>
+  <si>
+    <t>432342</t>
+  </si>
+  <si>
+    <t>214321</t>
+  </si>
+  <si>
+    <t>Артур</t>
+  </si>
+  <si>
+    <t>Жумбабве</t>
+  </si>
+  <si>
+    <t>21321</t>
   </si>
   <si>
     <t>Salary</t>
@@ -529,7 +565,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
@@ -564,7 +600,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -587,7 +623,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -606,6 +642,29 @@
       </c>
       <c r="G3">
         <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -616,7 +675,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
@@ -633,10 +692,10 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -644,13 +703,27 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3">
         <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -661,7 +734,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
@@ -674,13 +747,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -688,7 +761,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C2" s="1">
         <v>45353.56531767361</v>
@@ -702,13 +775,27 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C3" s="1">
         <v>45353.58790462963</v>
       </c>
       <c r="D3">
         <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1">
+        <v>45354.387308923615</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -719,7 +806,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
@@ -734,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -763,10 +850,30 @@
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F2">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>101</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -777,7 +884,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
@@ -796,7 +903,49 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -827,13 +976,13 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="E1" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F1" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -841,16 +990,16 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -861,16 +1010,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -881,16 +1030,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -904,7 +1053,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C5"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
@@ -916,10 +1065,54 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="C1" t="s">
-        <v>44</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/server/static/excel_table.xlsx
+++ b/server/static/excel_table.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="106">
   <si>
     <t>ID</t>
   </si>
@@ -67,12 +67,75 @@
     <t>tg: sosichka_nigera</t>
   </si>
   <si>
+    <t>Гурновський</t>
+  </si>
+  <si>
+    <t>Олександр</t>
+  </si>
+  <si>
+    <t>Відсутня</t>
+  </si>
+  <si>
+    <t>Кобзар</t>
+  </si>
+  <si>
+    <t>Староста ПІ-33</t>
+  </si>
+  <si>
+    <t>Ліл</t>
+  </si>
+  <si>
+    <t>Нінга</t>
+  </si>
+  <si>
+    <t>Рєпєр</t>
+  </si>
+  <si>
+    <t>Сергій</t>
+  </si>
+  <si>
+    <t>Богдан</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>Dorm Number</t>
   </si>
   <si>
     <t>Address</t>
   </si>
   <si>
+    <t>Гуртожиток кібернетиків</t>
+  </si>
+  <si>
+    <t>Сечєнова 8</t>
+  </si>
+  <si>
+    <t>Філологічний гуртожиток</t>
+  </si>
+  <si>
+    <t>Київська 32</t>
+  </si>
+  <si>
+    <t>Гуртожиток Ганді</t>
+  </si>
+  <si>
+    <t>Васильківська 13</t>
+  </si>
+  <si>
+    <t>Соцільний гуртожиток</t>
+  </si>
+  <si>
+    <t>Гостомельська 52</t>
+  </si>
+  <si>
+    <t>Грумпел</t>
+  </si>
+  <si>
+    <t>Санчарна 102</t>
+  </si>
+  <si>
     <t>Гуртожиток номер 1</t>
   </si>
   <si>
@@ -85,6 +148,30 @@
     <t>Сєченова 6</t>
   </si>
   <si>
+    <t>Неополітанський бриз</t>
+  </si>
+  <si>
+    <t>Сарнинська 34</t>
+  </si>
+  <si>
+    <t>Гуртожиток Юристів</t>
+  </si>
+  <si>
+    <t>Новарська 23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пропущений </t>
+  </si>
+  <si>
+    <t>Невідома 472</t>
+  </si>
+  <si>
+    <t>Викладацький гуртожиток</t>
+  </si>
+  <si>
+    <t>Кравська 5</t>
+  </si>
+  <si>
     <t>Balance</t>
   </si>
   <si>
@@ -112,12 +199,42 @@
     <t>DormitoryId</t>
   </si>
   <si>
+    <t>101/5</t>
+  </si>
+  <si>
+    <t>102/6</t>
+  </si>
+  <si>
+    <t>102/2</t>
+  </si>
+  <si>
+    <t>101/4</t>
+  </si>
+  <si>
+    <t>102/5</t>
+  </si>
+  <si>
+    <t>102/3</t>
+  </si>
+  <si>
     <t>101/6</t>
   </si>
   <si>
     <t>101/3</t>
   </si>
   <si>
+    <t>103/5</t>
+  </si>
+  <si>
+    <t>103/6</t>
+  </si>
+  <si>
+    <t>103/2</t>
+  </si>
+  <si>
+    <t>103/4</t>
+  </si>
+  <si>
     <t>Passport</t>
   </si>
   <si>
@@ -172,9 +289,6 @@
     <t>Сантехнік</t>
   </si>
   <si>
-    <t>Олександр</t>
-  </si>
-  <si>
     <t>Бажан</t>
   </si>
   <si>
@@ -182,6 +296,39 @@
   </si>
   <si>
     <t>Комуніст</t>
+  </si>
+  <si>
+    <t>Теплолюб</t>
+  </si>
+  <si>
+    <t>45000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Директор </t>
+  </si>
+  <si>
+    <t>Євген</t>
+  </si>
+  <si>
+    <t>Гороховський</t>
+  </si>
+  <si>
+    <t>120000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Наглядач </t>
+  </si>
+  <si>
+    <t>Тестовий</t>
+  </si>
+  <si>
+    <t>Тестер</t>
+  </si>
+  <si>
+    <t>12300</t>
+  </si>
+  <si>
+    <t>Перевіряяючий</t>
   </si>
   <si>
     <t>studentId</t>
@@ -565,7 +712,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G9"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
@@ -667,6 +814,121 @@
         <v>2</v>
       </c>
     </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
@@ -675,7 +937,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D12"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
@@ -692,38 +954,164 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C3">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
-        <v>21</v>
+      <c r="D8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -734,7 +1122,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D9"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
@@ -747,13 +1135,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -761,7 +1149,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="C2" s="1">
         <v>45353.56531767361</v>
@@ -775,7 +1163,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="C3" s="1">
         <v>45353.58790462963</v>
@@ -789,13 +1177,83 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="C4" s="1">
         <v>45354.387308923615</v>
       </c>
       <c r="D4">
         <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="1">
+        <v>45354.67716517361</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="1">
+        <v>45354.6913125</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="1">
+        <v>45354.797316261574</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="1">
+        <v>45354.79851206018</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="1">
+        <v>45354.799466805554</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -806,7 +1264,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F13"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
@@ -821,58 +1279,258 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="D1" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="E1" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="F1" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>101</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B3">
+        <v>102</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>102</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>10</v>
+      </c>
+      <c r="B5">
         <v>101</v>
       </c>
-      <c r="C3">
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>102</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>102</v>
+      </c>
+      <c r="C7">
         <v>3</v>
       </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3">
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>101</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>101</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>103</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>103</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>103</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <v>103</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13">
         <v>2</v>
       </c>
     </row>
@@ -903,7 +1561,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -914,10 +1572,10 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -931,7 +1589,7 @@
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -939,13 +1597,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -956,7 +1614,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F7"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
@@ -976,13 +1634,13 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="E1" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="F1" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -990,16 +1648,16 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -1010,16 +1668,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -1030,19 +1688,79 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="E4" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="F4">
         <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F7">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1065,10 +1783,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="C1" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">

--- a/server/static/excel_table.xlsx
+++ b/server/static/excel_table.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="103">
   <si>
     <t>ID</t>
   </si>
@@ -40,22 +40,187 @@
     <t>RoomId</t>
   </si>
   <si>
+    <t>Гурновський</t>
+  </si>
+  <si>
+    <t>Олександр</t>
+  </si>
+  <si>
+    <t>USER</t>
+  </si>
+  <si>
+    <t>Відсутня</t>
+  </si>
+  <si>
+    <t>Кобзар</t>
+  </si>
+  <si>
+    <t>Станіслав</t>
+  </si>
+  <si>
+    <t>Староста ПІ-33</t>
+  </si>
+  <si>
+    <t>Ліл</t>
+  </si>
+  <si>
+    <t>Нінга</t>
+  </si>
+  <si>
+    <t>Рєпєр</t>
+  </si>
+  <si>
     <t>Коваль</t>
   </si>
   <si>
-    <t>Станіслав</t>
-  </si>
-  <si>
-    <t>USER</t>
-  </si>
-  <si>
-    <t>tg: sosichka</t>
-  </si>
-  <si>
-    <t>Абдурозік</t>
-  </si>
-  <si>
-    <t>Іванкович</t>
+    <t>Сергій</t>
+  </si>
+  <si>
+    <t>Богдан</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Dorm Number</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Гуртожиток кібернетиків</t>
+  </si>
+  <si>
+    <t>Сечєнова 8</t>
+  </si>
+  <si>
+    <t>Філологічний гуртожиток</t>
+  </si>
+  <si>
+    <t>Київська 32</t>
+  </si>
+  <si>
+    <t>Гуртожиток Ганді</t>
+  </si>
+  <si>
+    <t>Васильківська 13</t>
+  </si>
+  <si>
+    <t>Соцільний гуртожиток</t>
+  </si>
+  <si>
+    <t>Гостомельська 52</t>
+  </si>
+  <si>
+    <t>Грумпел</t>
+  </si>
+  <si>
+    <t>Санчарна 102</t>
+  </si>
+  <si>
+    <t>Гуртожиток номер 1</t>
+  </si>
+  <si>
+    <t>Київська, 12</t>
+  </si>
+  <si>
+    <t>Гуртожиток номер 16</t>
+  </si>
+  <si>
+    <t>Сєченова 6</t>
+  </si>
+  <si>
+    <t>Неополітанський бриз</t>
+  </si>
+  <si>
+    <t>Сарнинська 34</t>
+  </si>
+  <si>
+    <t>Гуртожиток Юристів</t>
+  </si>
+  <si>
+    <t>Новарська 23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пропущений </t>
+  </si>
+  <si>
+    <t>Невідома 472</t>
+  </si>
+  <si>
+    <t>Викладацький гуртожиток</t>
+  </si>
+  <si>
+    <t>Кравська 5</t>
+  </si>
+  <si>
+    <t>Balance</t>
+  </si>
+  <si>
+    <t>Last Update Date</t>
+  </si>
+  <si>
+    <t>StudentId</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Block Number</t>
+  </si>
+  <si>
+    <t>Capacity</t>
+  </si>
+  <si>
+    <t>Free Capacity</t>
+  </si>
+  <si>
+    <t>Room Name</t>
+  </si>
+  <si>
+    <t>DormitoryId</t>
+  </si>
+  <si>
+    <t>101/5</t>
+  </si>
+  <si>
+    <t>102/6</t>
+  </si>
+  <si>
+    <t>102/2</t>
+  </si>
+  <si>
+    <t>101/4</t>
+  </si>
+  <si>
+    <t>102/5</t>
+  </si>
+  <si>
+    <t>102/3</t>
+  </si>
+  <si>
+    <t>101/6</t>
+  </si>
+  <si>
+    <t>103/5</t>
+  </si>
+  <si>
+    <t>103/6</t>
+  </si>
+  <si>
+    <t>103/2</t>
+  </si>
+  <si>
+    <t>103/4</t>
+  </si>
+  <si>
+    <t>102/4</t>
+  </si>
+  <si>
+    <t>101/3</t>
+  </si>
+  <si>
+    <t>Passport</t>
   </si>
   <si>
     <t>Ярослав</t>
@@ -64,187 +229,13 @@
     <t>Волошин</t>
   </si>
   <si>
-    <t>tg: sosichka_nigera</t>
-  </si>
-  <si>
-    <t>Гурновський</t>
-  </si>
-  <si>
-    <t>Олександр</t>
-  </si>
-  <si>
-    <t>Відсутня</t>
-  </si>
-  <si>
-    <t>Кобзар</t>
-  </si>
-  <si>
-    <t>Староста ПІ-33</t>
-  </si>
-  <si>
-    <t>Ліл</t>
-  </si>
-  <si>
-    <t>Нінга</t>
-  </si>
-  <si>
-    <t>Рєпєр</t>
-  </si>
-  <si>
-    <t>Сергій</t>
-  </si>
-  <si>
-    <t>Богдан</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Dorm Number</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>Гуртожиток кібернетиків</t>
-  </si>
-  <si>
-    <t>Сечєнова 8</t>
-  </si>
-  <si>
-    <t>Філологічний гуртожиток</t>
-  </si>
-  <si>
-    <t>Київська 32</t>
-  </si>
-  <si>
-    <t>Гуртожиток Ганді</t>
-  </si>
-  <si>
-    <t>Васильківська 13</t>
-  </si>
-  <si>
-    <t>Соцільний гуртожиток</t>
-  </si>
-  <si>
-    <t>Гостомельська 52</t>
-  </si>
-  <si>
-    <t>Грумпел</t>
-  </si>
-  <si>
-    <t>Санчарна 102</t>
-  </si>
-  <si>
-    <t>Гуртожиток номер 1</t>
-  </si>
-  <si>
-    <t>Київська, 12</t>
-  </si>
-  <si>
-    <t>Гуртожиток номер 16</t>
-  </si>
-  <si>
-    <t>Сєченова 6</t>
-  </si>
-  <si>
-    <t>Неополітанський бриз</t>
-  </si>
-  <si>
-    <t>Сарнинська 34</t>
-  </si>
-  <si>
-    <t>Гуртожиток Юристів</t>
-  </si>
-  <si>
-    <t>Новарська 23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Пропущений </t>
-  </si>
-  <si>
-    <t>Невідома 472</t>
-  </si>
-  <si>
-    <t>Викладацький гуртожиток</t>
-  </si>
-  <si>
-    <t>Кравська 5</t>
-  </si>
-  <si>
-    <t>Balance</t>
-  </si>
-  <si>
-    <t>Last Update Date</t>
-  </si>
-  <si>
-    <t>StudentId</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>Block Number</t>
-  </si>
-  <si>
-    <t>Capacity</t>
-  </si>
-  <si>
-    <t>Free Capacity</t>
-  </si>
-  <si>
-    <t>Room Name</t>
-  </si>
-  <si>
-    <t>DormitoryId</t>
-  </si>
-  <si>
-    <t>101/5</t>
-  </si>
-  <si>
-    <t>102/6</t>
-  </si>
-  <si>
-    <t>102/2</t>
-  </si>
-  <si>
-    <t>101/4</t>
-  </si>
-  <si>
-    <t>102/5</t>
-  </si>
-  <si>
-    <t>102/3</t>
-  </si>
-  <si>
-    <t>101/6</t>
-  </si>
-  <si>
-    <t>101/3</t>
-  </si>
-  <si>
-    <t>103/5</t>
-  </si>
-  <si>
-    <t>103/6</t>
-  </si>
-  <si>
-    <t>103/2</t>
-  </si>
-  <si>
-    <t>103/4</t>
-  </si>
-  <si>
-    <t>Passport</t>
+    <t>214321</t>
   </si>
   <si>
     <t>Кіщук</t>
   </si>
   <si>
     <t>432342</t>
-  </si>
-  <si>
-    <t>214321</t>
   </si>
   <si>
     <t>Артур</t>
@@ -712,7 +703,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G6"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
@@ -747,7 +738,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -756,7 +747,7 @@
         <v>8</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -765,12 +756,12 @@
         <v>10</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -779,27 +770,27 @@
         <v>12</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4">
         <v>16</v>
@@ -808,7 +799,7 @@
         <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -816,39 +807,39 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5">
         <v>17</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G5">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
         <v>19</v>
       </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
       <c r="D6">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
@@ -857,75 +848,6 @@
         <v>20</v>
       </c>
       <c r="G6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7">
-        <v>16</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8">
-        <v>17</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9">
         <v>1</v>
       </c>
     </row>
@@ -954,10 +876,10 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -965,13 +887,13 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C2">
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -979,13 +901,13 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C3">
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -993,13 +915,13 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C4">
         <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1007,13 +929,13 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1021,13 +943,13 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1035,13 +957,13 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1049,13 +971,13 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1063,13 +985,13 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C9">
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1077,13 +999,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C10">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1091,13 +1013,13 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C11">
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1105,13 +1027,13 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C12">
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1122,7 +1044,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D6"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
@@ -1135,124 +1057,82 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C2" s="1">
-        <v>45353.56531767361</v>
+        <v>45354.67716517361</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C3" s="1">
-        <v>45353.58790462963</v>
+        <v>45354.6913125</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C4" s="1">
-        <v>45354.387308923615</v>
+        <v>45354.797316261574</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C5" s="1">
-        <v>45354.67716517361</v>
+        <v>45354.79851206018</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C6" s="1">
-        <v>45354.6913125</v>
+        <v>45354.799466805554</v>
       </c>
       <c r="D6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="1">
-        <v>45354.797316261574</v>
-      </c>
-      <c r="D7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="1">
-        <v>45354.79851206018</v>
-      </c>
-      <c r="D8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="1">
-        <v>45354.799466805554</v>
-      </c>
-      <c r="D9">
         <v>8</v>
       </c>
     </row>
@@ -1264,7 +1144,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F16"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
@@ -1279,19 +1159,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1308,7 +1188,7 @@
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F2">
         <v>3</v>
@@ -1328,7 +1208,7 @@
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F3">
         <v>4</v>
@@ -1348,7 +1228,7 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -1368,7 +1248,7 @@
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -1388,7 +1268,7 @@
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F6">
         <v>6</v>
@@ -1408,7 +1288,7 @@
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F7">
         <v>12</v>
@@ -1428,7 +1308,7 @@
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -1436,19 +1316,19 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F9">
         <v>2</v>
@@ -1456,39 +1336,39 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10">
         <v>103</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
         <v>103</v>
       </c>
       <c r="C11">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -1496,30 +1376,30 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
         <v>103</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E12" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B13">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C13">
         <v>4</v>
@@ -1528,9 +1408,69 @@
         <v>4</v>
       </c>
       <c r="E13" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>25</v>
+      </c>
+      <c r="B14">
+        <v>101</v>
+      </c>
+      <c r="C14">
+        <v>6</v>
+      </c>
+      <c r="D14">
+        <v>6</v>
+      </c>
+      <c r="E14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>26</v>
+      </c>
+      <c r="B15">
+        <v>102</v>
+      </c>
+      <c r="C15">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>6</v>
+      </c>
+      <c r="E15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>101</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16">
         <v>2</v>
       </c>
     </row>
@@ -1561,35 +1501,35 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1597,13 +1537,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1634,13 +1574,13 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1648,16 +1588,16 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" t="s">
         <v>82</v>
-      </c>
-      <c r="C2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E2" t="s">
-        <v>85</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -1668,16 +1608,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" t="s">
         <v>86</v>
-      </c>
-      <c r="C3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E3" t="s">
-        <v>89</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -1688,16 +1628,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -1708,16 +1648,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -1728,16 +1668,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" t="s">
         <v>96</v>
-      </c>
-      <c r="C6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D6" t="s">
-        <v>98</v>
-      </c>
-      <c r="E6" t="s">
-        <v>99</v>
       </c>
       <c r="F6">
         <v>14</v>
@@ -1748,16 +1688,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E7" t="s">
         <v>100</v>
-      </c>
-      <c r="C7" t="s">
-        <v>101</v>
-      </c>
-      <c r="D7" t="s">
-        <v>102</v>
-      </c>
-      <c r="E7" t="s">
-        <v>103</v>
       </c>
       <c r="F7">
         <v>7</v>
@@ -1771,7 +1711,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C1"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
@@ -1783,54 +1723,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
